--- a/Files-NotProjects/Nodes-Data.xlsx
+++ b/Files-NotProjects/Nodes-Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>A0</t>
   </si>
@@ -107,9 +107,6 @@
     <t>c02</t>
   </si>
   <si>
-    <t>n02</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -128,20 +125,20 @@
     <t>ph</t>
   </si>
   <si>
-    <t>orp</t>
-  </si>
-  <si>
     <t>do</t>
   </si>
   <si>
     <t>con</t>
+  </si>
+  <si>
+    <t>no2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,16 +146,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,18 +196,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF996633"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF996633"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF996633"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF996633"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF996633"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -452,432 +511,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P25"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="16" width="5.1796875" customWidth="1"/>
+    <col min="2" max="15" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>11</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>12</v>
       </c>
-      <c r="P2">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N24" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="O24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O24" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>